--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robert.Wilds/Documents/GitHub/readDBtoALfresco_association/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.wilds/Downloads/docker/GIT/readDBtoALfresco_association/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DB80D-C9C7-DA4E-BFE4-AFD31B8F17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E5170-E10B-5C4A-8F63-27BBA28DC201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="6980" windowWidth="30560" windowHeight="13900" xr2:uid="{22FC8E59-915B-4E9B-8DAF-3B587C31AA66}"/>
   </bookViews>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -215,6 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +536,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,7 +619,7 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
@@ -658,7 +660,7 @@
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
@@ -699,6 +701,7 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -734,6 +737,7 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -772,6 +776,7 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>16</v>
       </c>
